--- a/script/Pr_temp_spreadsheets/05_00_ARC05_10B.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_10B.xlsx
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46b28a47-d198-4514-bf64-a942cb496747}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38e47ae1-847f-4cf5-9541-2232519207c9}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5d8f70c0-7d66-4f83-b887-021f902dc073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{eba90620-e2eb-4554-8bb9-b91f7e4a87cd}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
